--- a/data/output/FV2504_FV2410/UTILMD/44020.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44020.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="338">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="338">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1132,6 +1132,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U161" totalsRowShown="0">
+  <autoFilter ref="A1:U161"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1421,7 +1451,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9303,5 +9336,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44020.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44020.xlsx
@@ -2019,7 +2019,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2733,7 +2733,7 @@
         <v>318</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4321,7 +4321,7 @@
         <v>319</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4541,7 +4541,7 @@
         <v>320</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4761,7 +4761,7 @@
         <v>321</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4981,7 +4981,7 @@
         <v>322</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5201,7 +5201,7 @@
         <v>323</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5633,7 +5633,7 @@
         <v>324</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6033,7 +6033,7 @@
         <v>326</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6233,7 +6233,7 @@
         <v>327</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6379,7 +6379,7 @@
         <v>328</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6641,7 +6641,7 @@
         <v>330</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6903,7 +6903,7 @@
         <v>332</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7103,7 +7103,7 @@
         <v>319</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7303,7 +7303,7 @@
         <v>319</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7503,7 +7503,7 @@
         <v>333</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7815,7 +7815,7 @@
         <v>319</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7965,7 +7965,7 @@
         <v>319</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8401,7 +8401,7 @@
         <v>335</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9433,7 +9433,7 @@
         <v>337</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9745,7 +9745,7 @@
         <v>319</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10165,7 +10165,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N159" s="2"/>
